--- a/Language.xlsx
+++ b/Language.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FanCtrl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Robert\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03064358-4657-462A-9A86-CA41D9D6E145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49BE394-EFCB-4B5A-A959-26B7A8FD2AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7836" yWindow="4200" windowWidth="34560" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="471">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1197,23 +1197,269 @@
   </si>
   <si>
     <t>유닛 :</t>
+  </si>
+  <si>
+    <t>Retraso:</t>
+  </si>
+  <si>
+    <t>Retraso (segundos)</t>
+  </si>
+  <si>
+    <t>Donar</t>
+  </si>
+  <si>
+    <t>Habilitar control automático de ventiladores</t>
+  </si>
+  <si>
+    <t>Habilitar OSD (RTSS)</t>
+  </si>
+  <si>
+    <t>Inglés</t>
+  </si>
+  <si>
+    <t>Salir</t>
+  </si>
+  <si>
+    <t>Ventilador</t>
+  </si>
+  <si>
+    <t>Control de ventilador</t>
+  </si>
+  <si>
+    <t>Velocidad de ventilador</t>
+  </si>
+  <si>
+    <t>Francés</t>
+  </si>
+  <si>
+    <t>Juego</t>
+  </si>
+  <si>
+    <t>Gráfico</t>
+  </si>
+  <si>
+    <t>Grupos</t>
+  </si>
+  <si>
+    <t>Unidad:</t>
+  </si>
+  <si>
+    <t>Animación de icono en bandeja</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Claro</t>
+  </si>
+  <si>
+    <t>Oscuro</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Detenido</t>
+  </si>
+  <si>
+    <t>Incremento</t>
+  </si>
+  <si>
+    <t>Iniciar con Windows</t>
+  </si>
+  <si>
+    <t>Iniciar minimizado</t>
+  </si>
+  <si>
+    <t>Silencio</t>
+  </si>
+  <si>
+    <t>Mostrar hora de sistema</t>
+  </si>
+  <si>
+    <t>Mostrar</t>
+  </si>
+  <si>
+    <t>Configuración</t>
+  </si>
+  <si>
+    <t>Ajustar color</t>
+  </si>
+  <si>
+    <t>Detener</t>
+  </si>
+  <si>
+    <t>Iniciar</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t>Guardar</t>
+  </si>
+  <si>
+    <t>En ejecución</t>
+  </si>
+  <si>
+    <t>Direccion IP</t>
+  </si>
+  <si>
+    <t>Elementos</t>
+  </si>
+  <si>
+    <t>Japonés</t>
+  </si>
+  <si>
+    <t>Coreano</t>
+  </si>
+  <si>
+    <t>Idioma:</t>
+  </si>
+  <si>
+    <t>Libreria:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Configuración de liquidctl</t>
+  </si>
+  <si>
+    <t>Cargar</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Creado por Lich</t>
+  </si>
+  <si>
+    <t>Modo</t>
+  </si>
+  <si>
+    <t>¡El hardware y el archivo Control.json no coinciden!</t>
+  </si>
+  <si>
+    <t>Abrir</t>
+  </si>
+  <si>
+    <t>Opción</t>
+  </si>
+  <si>
+    <t>Recargar</t>
+  </si>
+  <si>
+    <t>Numero de puerto</t>
+  </si>
+  <si>
+    <t>Puerto:</t>
+  </si>
+  <si>
+    <t>Complemento</t>
+  </si>
+  <si>
+    <t>Rendimiento</t>
+  </si>
+  <si>
+    <t>Reestablecer</t>
+  </si>
+  <si>
+    <t>¿Desea reestablecer?</t>
+  </si>
+  <si>
+    <t>¿Desea cambiar la libreria?</t>
+  </si>
+  <si>
+    <t>Añadir</t>
+  </si>
+  <si>
+    <t>Alinear los digitos:</t>
+  </si>
+  <si>
+    <t>Aplicar</t>
+  </si>
+  <si>
+    <t>Automático :</t>
+  </si>
+  <si>
+    <t>Control de ventiladores automático</t>
+  </si>
+  <si>
+    <t>Cancelar</t>
+  </si>
+  <si>
+    <t>¿Desea cambiar el color?</t>
+  </si>
+  <si>
+    <t>Iluminación CLC</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Comando</t>
+  </si>
+  <si>
+    <t>Color predeterminado</t>
+  </si>
+  <si>
+    <t>¡La información no puede ser agregada porque hay llaves duplicadas!</t>
+  </si>
+  <si>
+    <t>¡Error al leer  el archivo preestablecido!</t>
+  </si>
+  <si>
+    <t>Tecla de acceso rápido</t>
+  </si>
+  <si>
+    <t>Histéresis</t>
+  </si>
+  <si>
+    <t>Intervalo</t>
+  </si>
+  <si>
+    <t>Iluminación Kraken</t>
+  </si>
+  <si>
+    <t>Iluminación</t>
+  </si>
+  <si>
+    <t>Preestablecido</t>
+  </si>
+  <si>
+    <t>Remover</t>
+  </si>
+  <si>
+    <t>Iluminación y control de ventiladores NZXT RGB</t>
+  </si>
+  <si>
+    <t>Sensor de temperatura objetivo</t>
+  </si>
+  <si>
+    <t>Tema :</t>
+  </si>
+  <si>
+    <t>¡No se puede abrir el socket!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1260,7 +1506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1271,9 +1517,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1551,18 +1804,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="40.69921875" customWidth="1"/>
+    <col min="1" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1578,8 +1832,11 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1595,8 +1852,11 @@
       <c r="E2" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1612,8 +1872,11 @@
       <c r="E3" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1629,8 +1892,11 @@
       <c r="E4" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1646,8 +1912,11 @@
       <c r="E5" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1663,8 +1932,11 @@
       <c r="E6" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1680,8 +1952,11 @@
       <c r="E7" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1697,8 +1972,11 @@
       <c r="E8" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1714,8 +1992,11 @@
       <c r="E9" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F9" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1731,8 +2012,11 @@
       <c r="E10" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F10" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1748,8 +2032,11 @@
       <c r="E11" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1765,8 +2052,11 @@
       <c r="E12" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F12" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1782,8 +2072,11 @@
       <c r="E13" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1799,8 +2092,11 @@
       <c r="E14" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F14" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1816,8 +2112,11 @@
       <c r="E15" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F15" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1833,8 +2132,11 @@
       <c r="E16" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F16" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1850,8 +2152,11 @@
       <c r="E17" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="F17" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1867,8 +2172,11 @@
       <c r="E18" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F18" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -1884,8 +2192,11 @@
       <c r="E19" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="F19" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -1901,8 +2212,11 @@
       <c r="E20" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F20" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -1918,8 +2232,11 @@
       <c r="E21" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F21" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1935,8 +2252,11 @@
       <c r="E22" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F22" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -1952,8 +2272,11 @@
       <c r="E23" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F23" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -1969,8 +2292,11 @@
       <c r="E24" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F24" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>44</v>
       </c>
@@ -1986,8 +2312,11 @@
       <c r="E25" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="F25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -2003,8 +2332,11 @@
       <c r="E26" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F26" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -2020,8 +2352,11 @@
       <c r="E27" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F27" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -2037,8 +2372,11 @@
       <c r="E28" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F28" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -2054,8 +2392,11 @@
       <c r="E29" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F29" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
@@ -2071,8 +2412,11 @@
       <c r="E30" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F30" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
@@ -2088,8 +2432,11 @@
       <c r="E31" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F31" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
@@ -2105,8 +2452,11 @@
       <c r="E32" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F32" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -2122,8 +2472,11 @@
       <c r="E33" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F33" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
@@ -2139,8 +2492,11 @@
       <c r="E34" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F34" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>58</v>
       </c>
@@ -2156,8 +2512,11 @@
       <c r="E35" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F35" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
@@ -2173,8 +2532,11 @@
       <c r="E36" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F36" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
@@ -2190,8 +2552,11 @@
       <c r="E37" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F37" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>63</v>
       </c>
@@ -2207,8 +2572,11 @@
       <c r="E38" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F38" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
@@ -2224,8 +2592,11 @@
       <c r="E39" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F39" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>65</v>
       </c>
@@ -2241,8 +2612,11 @@
       <c r="E40" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F40" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -2258,8 +2632,11 @@
       <c r="E41" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F41" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
         <v>68</v>
       </c>
@@ -2275,8 +2652,11 @@
       <c r="E42" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F42" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>70</v>
       </c>
@@ -2292,8 +2672,11 @@
       <c r="E43" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F43" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -2309,8 +2692,11 @@
       <c r="E44" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F44" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
@@ -2326,8 +2712,14 @@
       <c r="E45" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F45" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>74</v>
       </c>
@@ -2343,8 +2735,11 @@
       <c r="E46" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F46" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>75</v>
       </c>
@@ -2360,8 +2755,11 @@
       <c r="E47" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F47" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>76</v>
       </c>
@@ -2377,8 +2775,11 @@
       <c r="E48" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F48" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>77</v>
       </c>
@@ -2394,8 +2795,11 @@
       <c r="E49" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F49" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>79</v>
       </c>
@@ -2411,8 +2815,11 @@
       <c r="E50" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F50" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>81</v>
       </c>
@@ -2428,8 +2835,11 @@
       <c r="E51" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F51" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>82</v>
       </c>
@@ -2445,8 +2855,11 @@
       <c r="E52" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="F52" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="45">
       <c r="A53" s="2" t="s">
         <v>83</v>
       </c>
@@ -2462,8 +2875,11 @@
       <c r="E53" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F53" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>85</v>
       </c>
@@ -2479,8 +2895,11 @@
       <c r="E54" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F54" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>86</v>
       </c>
@@ -2496,8 +2915,11 @@
       <c r="E55" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F55" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>87</v>
       </c>
@@ -2513,8 +2935,11 @@
       <c r="E56" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F56" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>88</v>
       </c>
@@ -2530,8 +2955,11 @@
       <c r="E57" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F57" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>90</v>
       </c>
@@ -2547,8 +2975,11 @@
       <c r="E58" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F58" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>92</v>
       </c>
@@ -2564,8 +2995,11 @@
       <c r="E59" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F59" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>93</v>
       </c>
@@ -2581,8 +3015,11 @@
       <c r="E60" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F60" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -2598,8 +3035,11 @@
       <c r="E61" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F61" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>96</v>
       </c>
@@ -2615,8 +3055,11 @@
       <c r="E62" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F62" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
         <v>97</v>
       </c>
@@ -2632,8 +3075,11 @@
       <c r="E63" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F63" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
         <v>99</v>
       </c>
@@ -2649,8 +3095,11 @@
       <c r="E64" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F64" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
         <v>100</v>
       </c>
@@ -2666,8 +3115,11 @@
       <c r="E65" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F65" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>101</v>
       </c>
@@ -2683,8 +3135,11 @@
       <c r="E66" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="F66" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30">
       <c r="A67" s="2" t="s">
         <v>102</v>
       </c>
@@ -2700,8 +3155,11 @@
       <c r="E67" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F67" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
         <v>104</v>
       </c>
@@ -2717,8 +3175,11 @@
       <c r="E68" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F68" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>105</v>
       </c>
@@ -2734,8 +3195,11 @@
       <c r="E69" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F69" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>106</v>
       </c>
@@ -2751,8 +3215,11 @@
       <c r="E70" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F70" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
         <v>107</v>
       </c>
@@ -2768,8 +3235,11 @@
       <c r="E71" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F71" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
         <v>108</v>
       </c>
@@ -2785,8 +3255,11 @@
       <c r="E72" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F72" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
         <v>110</v>
       </c>
@@ -2802,8 +3275,11 @@
       <c r="E73" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F73" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
         <v>112</v>
       </c>
@@ -2819,8 +3295,11 @@
       <c r="E74" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F74" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
         <v>114</v>
       </c>
@@ -2836,8 +3315,11 @@
       <c r="E75" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F75" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
         <v>115</v>
       </c>
@@ -2853,8 +3335,11 @@
       <c r="E76" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F76" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
         <v>116</v>
       </c>
@@ -2870,8 +3355,11 @@
       <c r="E77" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F77" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
         <v>118</v>
       </c>
@@ -2887,8 +3375,11 @@
       <c r="E78" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F78" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>119</v>
       </c>
@@ -2904,8 +3395,11 @@
       <c r="E79" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F79" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
         <v>121</v>
       </c>
@@ -2921,8 +3415,11 @@
       <c r="E80" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F80" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
         <v>123</v>
       </c>
@@ -2938,8 +3435,11 @@
       <c r="E81" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F81" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
         <v>124</v>
       </c>
@@ -2955,8 +3455,11 @@
       <c r="E82" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F82" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
         <v>125</v>
       </c>
@@ -2972,8 +3475,11 @@
       <c r="E83" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F83" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
         <v>127</v>
       </c>
@@ -2989,8 +3495,11 @@
       <c r="E84" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F84" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
         <v>128</v>
       </c>
@@ -3006,8 +3515,11 @@
       <c r="E85" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F85" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
         <v>130</v>
       </c>
@@ -3023,8 +3535,11 @@
       <c r="E86" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F86" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
         <v>132</v>
       </c>
@@ -3040,8 +3555,11 @@
       <c r="E87" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F87" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
         <v>134</v>
       </c>
@@ -3057,8 +3575,11 @@
       <c r="E88" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F88" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
         <v>136</v>
       </c>
@@ -3074,8 +3595,11 @@
       <c r="E89" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F89" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>138</v>
       </c>
@@ -3091,8 +3615,11 @@
       <c r="E90" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F90" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
         <v>140</v>
       </c>
@@ -3108,8 +3635,11 @@
       <c r="E91" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F91" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
         <v>142</v>
       </c>
@@ -3124,6 +3654,9 @@
       </c>
       <c r="E92" s="2" t="s">
         <v>388</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/Language.xlsx
+++ b/Language.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\FanCtrl\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\FanCtrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770ACE19-8D35-4C36-ABC3-B8CF1C402467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48C5F16-0912-4FAE-B544-A6E67FDA4428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="630" windowWidth="33810" windowHeight="20235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13080" yWindow="1220" windowWidth="34470" windowHeight="18470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="670">
   <si>
     <t>KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1838,6 +1838,384 @@
   </si>
   <si>
     <t>Пожертвовать</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Französisch</t>
+  </si>
+  <si>
+    <t>Japanisch</t>
+  </si>
+  <si>
+    <t>Koreanisch</t>
+  </si>
+  <si>
+    <t>Spanisch</t>
+  </si>
+  <si>
+    <t>Deutsch</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Allemand</t>
+  </si>
+  <si>
+    <t>Alemán</t>
+  </si>
+  <si>
+    <t>немецкий</t>
+  </si>
+  <si>
+    <t>독일어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ドイツ語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hinzufügen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ziffern ausrichten :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anwenden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Lüftersteuerung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abbrechen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Möchten Sie die Farbeinstellung ändern?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLC Beleuchtung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dienste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farbe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Befehl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steuerung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standardfarbe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verzögerung :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verzögerung (Sek.) :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spenden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daten können nicht hinzugefügt werden, da ein doppelter Schlüssel vorhanden ist!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automatische Lüftersteuerung aktivieren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSD aktivieren (RTSS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fehler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usw.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beenden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fahrenheit (°F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beim Lesen der Einstellungsdatei ist ein Fehler aufgetreten!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lüfter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lüfter-Kontrolle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lüftergeschwindigkeit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diagramm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gruppen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tastenkombination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperaturbereich(Hysterese):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intervall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-Adresse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elemente</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kraken Beleuchtung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprache :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bibliothek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beleuchtung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liquidctl Einstellung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Made by Lich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Die "hardware and Control.json" Datei wurde nicht gefunden!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Öffnen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Möchten Sie die Bibliothek ändern?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Möchten Sie wirklich zurücksetzen?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leistung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voreinstellung :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neu laden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entfernen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zurücksetzen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NZXT RGB＆Lüftersteuerung-Beleuchtung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Läuft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russisch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speichern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farbauswahl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Einstellung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeigen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeige Systemzeit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starte minimiert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starte mit Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schritt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angehalten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ziel-Temperatursensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperatur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theme :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taskleisten-Symbol Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket kann nicht geöffnet werden!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Einheit :</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2218,19 +2596,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="7" width="35.625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="8" width="35.58203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2252,8 +2630,11 @@
       <c r="G1" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2275,8 +2656,11 @@
       <c r="G2" s="5" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2298,8 +2682,11 @@
       <c r="G3" s="5" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2321,8 +2708,11 @@
       <c r="G4" s="5" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -2344,8 +2734,11 @@
       <c r="G5" s="5" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -2367,8 +2760,11 @@
       <c r="G6" s="5" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2390,8 +2786,11 @@
       <c r="G7" s="5" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -2413,8 +2812,11 @@
       <c r="G8" s="5" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -2436,8 +2838,11 @@
       <c r="G9" s="5" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -2459,8 +2864,11 @@
       <c r="G10" s="5" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -2482,8 +2890,11 @@
       <c r="G11" s="5" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -2505,8 +2916,11 @@
       <c r="G12" s="5" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2528,8 +2942,11 @@
       <c r="G13" s="5" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -2551,8 +2968,11 @@
       <c r="G14" s="5" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -2574,8 +2994,11 @@
       <c r="G15" s="5" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -2597,8 +3020,11 @@
       <c r="G16" s="5" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
@@ -2620,8 +3046,11 @@
       <c r="G17" s="5" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H17" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -2643,8 +3072,11 @@
       <c r="G18" s="2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H18" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -2666,8 +3098,11 @@
       <c r="G19" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H19" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -2689,8 +3124,11 @@
       <c r="G20" s="4" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
@@ -2712,8 +3150,11 @@
       <c r="G21" s="5" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
@@ -2735,8 +3176,11 @@
       <c r="G22" s="5" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -2758,8 +3202,11 @@
       <c r="G23" s="5" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -2781,8 +3228,11 @@
       <c r="G24" s="5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -2804,8 +3254,11 @@
       <c r="G25" s="5" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H25" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -2827,8 +3280,11 @@
       <c r="G26" s="5" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
@@ -2850,8 +3306,11 @@
       <c r="G27" s="5" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>48</v>
       </c>
@@ -2873,8 +3332,11 @@
       <c r="G28" s="5" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
@@ -2896,8 +3358,11 @@
       <c r="G29" s="5" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>52</v>
       </c>
@@ -2919,8 +3384,11 @@
       <c r="G30" s="5" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>53</v>
       </c>
@@ -2942,1455 +3410,1674 @@
       <c r="G31" s="5" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="H31" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="H33" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="H34" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="H35" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="H36" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="H37" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="H38" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="H39" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="H40" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="H41" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="H42" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="H43" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="H44" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="H45" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="H46" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="H47" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="H48" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="H49" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="G50" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="H51" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="H52" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="H53" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+      <c r="A54" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="H54" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="H55" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="H56" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="H57" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G58" s="5" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="H58" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G59" s="5" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="H59" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G60" s="5" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="H60" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="H61" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="H62" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G63" s="5" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="H63" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G64" s="5" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="H64" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G65" s="5" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="H65" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D66" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G66" s="5" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="H66" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G67" s="5" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="H67" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.45">
+      <c r="A68" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="H68" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="H69" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F70" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G70" s="5" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="H70" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F71" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="H71" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F72" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="H72" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+      <c r="H73" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F74" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G74" s="5" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="H74" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G75" s="5" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="H75" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G76" s="5" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+      <c r="H76" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D77" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F77" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G77" s="5" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="H77" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G78" s="5" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+      <c r="H78" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D79" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F79" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="H79" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D80" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G80" s="5" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="H80" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+      <c r="H81" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D82" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F82" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G82" s="5" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+      <c r="H82" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G83" s="5" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+      <c r="H83" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F84" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="H84" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F85" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G85" s="5" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="H85" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F86" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G86" s="5" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+      <c r="H86" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A87" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G87" s="5" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+      <c r="H87" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A88" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D88" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F88" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G88" s="5" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+      <c r="H88" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F89" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G89" s="5" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+      <c r="H89" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A90" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G90" s="5" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+      <c r="H90" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A91" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D91" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E91" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F91" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G91" s="5" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+      <c r="H91" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D92" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F92" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G92" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+      <c r="H92" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A93" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D93" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F93" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G93" s="5" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+      <c r="H93" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A94" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D94" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F94" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G94" s="5" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+      <c r="H94" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A95" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G95" s="5" t="s">
         <v>564</v>
       </c>
+      <c r="H95" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H96" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
